--- a/data/tower_count/tower_count_2018.xlsx
+++ b/data/tower_count/tower_count_2018.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IslandRs\Desktop\Great Duck 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642DAAFA-7FEC-4C83-9146-EDD034E0A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27210" windowHeight="11880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>HERG</t>
   </si>
@@ -59,9 +60,6 @@
     <t>2 ATPU</t>
   </si>
   <si>
-    <t>fog</t>
-  </si>
-  <si>
     <t>4 ATPU</t>
   </si>
   <si>
@@ -86,9 +84,6 @@
     <t>5 ATPU, 3 RAZO, 1 DCCO, 1 juv. Eagle, 1 seal</t>
   </si>
   <si>
-    <t>rain</t>
-  </si>
-  <si>
     <t>7 ATPU, 1 DCCO</t>
   </si>
   <si>
@@ -101,9 +96,6 @@
     <t>9 ATPU, 2 NOGA</t>
   </si>
   <si>
-    <t>Break</t>
-  </si>
-  <si>
     <t>9 ATPU, 2 seals, 2 DCCO</t>
   </si>
   <si>
@@ -141,12 +133,6 @@
   </si>
   <si>
     <t>5 ATPU, 1 DCCO, 1 seal</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
   <si>
     <t>4 ATPU,2dcco,1 gray seal</t>
@@ -155,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,53 +583,68 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43265</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>43266</v>
+      </c>
+      <c r="B6">
+        <v>306</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="B7">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43267</v>
+        <v>43268</v>
       </c>
       <c r="B8">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -651,22 +652,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43268</v>
+        <v>43269</v>
       </c>
       <c r="B9">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -674,22 +675,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43269</v>
+        <v>43270</v>
       </c>
       <c r="B10">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -697,68 +698,68 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="B11">
-        <v>432</v>
+        <v>559</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>20</v>
       </c>
       <c r="F11">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43271</v>
+        <v>43272</v>
       </c>
       <c r="B12">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43272</v>
+        <v>43273</v>
       </c>
       <c r="B13">
-        <v>537</v>
+        <v>479</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -766,22 +767,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43273</v>
+        <v>43274</v>
       </c>
       <c r="B14">
-        <v>479</v>
+        <v>787</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -789,22 +790,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43274</v>
+        <v>43275</v>
       </c>
       <c r="B15">
-        <v>787</v>
+        <v>576</v>
       </c>
       <c r="C15">
         <v>48</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -812,22 +813,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43275</v>
+        <v>43277</v>
       </c>
       <c r="B16">
-        <v>576</v>
+        <v>497</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -835,30 +836,45 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43276</v>
-      </c>
-      <c r="B17" t="s">
+        <v>43278</v>
+      </c>
+      <c r="B17">
+        <v>507</v>
+      </c>
+      <c r="C17">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43277</v>
+        <v>43279</v>
       </c>
       <c r="B18">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>21</v>
@@ -866,22 +882,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43278</v>
+        <v>43281</v>
       </c>
       <c r="B19">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -889,53 +905,68 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43279</v>
+        <v>43282</v>
       </c>
       <c r="B20">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43280</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
+        <v>43288</v>
+      </c>
+      <c r="B21">
+        <v>496</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43281</v>
+        <v>43289</v>
       </c>
       <c r="B22">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
@@ -943,415 +974,232 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43282</v>
+        <v>43290</v>
       </c>
       <c r="B23">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43283</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
+        <v>43291</v>
+      </c>
+      <c r="B24">
+        <v>552</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>43</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>154</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43284</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
+        <v>43292</v>
+      </c>
+      <c r="B25">
+        <v>470</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43285</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
+        <v>43293</v>
+      </c>
+      <c r="B26">
+        <v>452</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>178</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43286</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
+        <v>43294</v>
+      </c>
+      <c r="B27">
+        <v>577</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>188</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43287</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
+        <v>43295</v>
+      </c>
+      <c r="B28">
+        <v>484</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>135</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43288</v>
+        <v>43299</v>
       </c>
       <c r="B29">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43289</v>
+        <v>43300</v>
       </c>
       <c r="B30">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43290</v>
+        <v>43301</v>
       </c>
       <c r="B31">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>27</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43291</v>
+        <v>43302</v>
       </c>
       <c r="B32">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43292</v>
-      </c>
-      <c r="B33">
-        <v>470</v>
-      </c>
-      <c r="C33">
         <v>36</v>
-      </c>
-      <c r="D33">
-        <v>50</v>
-      </c>
-      <c r="E33">
-        <v>16</v>
-      </c>
-      <c r="F33">
-        <v>186</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43293</v>
-      </c>
-      <c r="B34">
-        <v>452</v>
-      </c>
-      <c r="C34">
-        <v>31</v>
-      </c>
-      <c r="D34">
-        <v>34</v>
-      </c>
-      <c r="E34">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>178</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43294</v>
-      </c>
-      <c r="B35">
-        <v>577</v>
-      </c>
-      <c r="C35">
-        <v>30</v>
-      </c>
-      <c r="D35">
-        <v>41</v>
-      </c>
-      <c r="E35">
-        <v>11</v>
-      </c>
-      <c r="F35">
-        <v>188</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43295</v>
-      </c>
-      <c r="B36">
-        <v>484</v>
-      </c>
-      <c r="C36">
-        <v>24</v>
-      </c>
-      <c r="D36">
-        <v>32</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-      <c r="F36">
-        <v>135</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43296</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43297</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43298</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43299</v>
-      </c>
-      <c r="B40">
-        <v>525</v>
-      </c>
-      <c r="C40">
-        <v>40</v>
-      </c>
-      <c r="D40">
-        <v>25</v>
-      </c>
-      <c r="E40">
-        <v>9</v>
-      </c>
-      <c r="F40">
-        <v>123</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43300</v>
-      </c>
-      <c r="B41">
-        <v>498</v>
-      </c>
-      <c r="C41">
-        <v>21</v>
-      </c>
-      <c r="D41">
-        <v>33</v>
-      </c>
-      <c r="E41">
-        <v>11</v>
-      </c>
-      <c r="F41">
-        <v>179</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43301</v>
-      </c>
-      <c r="B42">
-        <v>501</v>
-      </c>
-      <c r="C42">
-        <v>28</v>
-      </c>
-      <c r="D42">
-        <v>27</v>
-      </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>152</v>
-      </c>
-      <c r="G42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43302</v>
-      </c>
-      <c r="B43">
-        <v>553</v>
-      </c>
-      <c r="C43">
-        <v>40</v>
-      </c>
-      <c r="D43">
-        <v>35</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="F43">
-        <v>101</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46">
-        <f>MAX(B2:B44)</f>
-        <v>787</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:E46" si="0">MAX(C2:C44)</f>
-        <v>50</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F46">
-        <f>MAX(F2:F44)</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48">
-        <f>MIN(B4:B46)</f>
-        <v>306</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:F48" si="1">MIN(C4:C46)</f>
-        <v>21</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/tower_count/tower_count_2018.xlsx
+++ b/data/tower_count/tower_count_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642DAAFA-7FEC-4C83-9146-EDD034E0A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEA00B4-B84A-4246-9538-933925C86074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
